--- a/NanoXLSX4j.Lib/src/test/resources/tampered.xlsx
+++ b/NanoXLSX4j.Lib/src/test/resources/tampered.xlsx
@@ -98,6 +98,7 @@
         <v>a</v>
       </c>
     </row>
+    <sheetProtection sheet="1" objects="2" scenarios="true" insertColumns="" insertHyperlinks="f" deleteRows="no" autoFilter="-1"/>
   </sheetData>
 </worksheet>
 </file>